--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
@@ -12,6 +12,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407">
   <si>
     <t>Step No</t>
   </si>
@@ -325,15 +328,6 @@
     <t>add 1 entered</t>
   </si>
   <si>
-    <t>CONTACT_ADDRESS_LINE2</t>
-  </si>
-  <si>
-    <t>Enter Add2</t>
-  </si>
-  <si>
-    <t>add 2 entered</t>
-  </si>
-  <si>
     <t>CONTACT_STATE</t>
   </si>
   <si>
@@ -475,10 +469,34 @@
     <t>Email entered</t>
   </si>
   <si>
+    <t>SAVE_PROGRESS_BUTTON</t>
+  </si>
+  <si>
+    <t>OK_BUTTON</t>
+  </si>
+  <si>
+    <t>INCOMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>Click on view incomplete link</t>
+  </si>
+  <si>
+    <t>View incomplete link clicked</t>
+  </si>
+  <si>
+    <t>ViewComplete</t>
+  </si>
+  <si>
+    <t>Click on Complete application link</t>
+  </si>
+  <si>
+    <t>Complete application link clicked</t>
+  </si>
+  <si>
     <t>APP_PRI_INSURANCE</t>
   </si>
   <si>
-    <t>Conseco</t>
+    <t>Cons</t>
   </si>
   <si>
     <t>Enter Insurance name</t>
@@ -511,6 +529,9 @@
     <t>APP_INS_NUMBER</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Enter Policy number</t>
   </si>
   <si>
@@ -529,6 +550,9 @@
     <t>APP_SUBS_NAME</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>Enter Subscriber name</t>
   </si>
   <si>
@@ -574,250 +598,565 @@
     <t>Yes clicked</t>
   </si>
   <si>
-    <t>SAVE_PROGRESS_BUTTON</t>
-  </si>
-  <si>
-    <t>OK_BUTTON</t>
-  </si>
-  <si>
-    <t>INCOMPLETE_APPLICATION</t>
-  </si>
-  <si>
-    <t>COMPLETE_APPLICATION</t>
+    <t>APP_MEDI_SERVICE</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for medical services:</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>APP_PHARMACY_BENEFITS</t>
+  </si>
+  <si>
+    <t>Co-Pay or Coinsurance for pharmacy benefits:</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_PART_NO</t>
+  </si>
+  <si>
+    <t>Do you have Medicare Part D?</t>
+  </si>
+  <si>
+    <t>APP_MEDICARE_SUPP_NO</t>
+  </si>
+  <si>
+    <t>Does the patient have a Medicare Supplement?</t>
+  </si>
+  <si>
+    <t>No clicked</t>
+  </si>
+  <si>
+    <t>APP_SEC_INSURANCE_NO</t>
+  </si>
+  <si>
+    <t>Do you have Secondary Insurance?</t>
+  </si>
+  <si>
+    <t>APP_COBRA _EFFECT_NO</t>
+  </si>
+  <si>
+    <t>Is insurance coverage continuation under COBRA in effect?</t>
+  </si>
+  <si>
+    <t>TRASH_PROVIDER_PAGE</t>
+  </si>
+  <si>
+    <t>Trash old provider</t>
+  </si>
+  <si>
+    <t>Trashed</t>
+  </si>
+  <si>
+    <t>SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Name tab</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Type address</t>
+  </si>
+  <si>
+    <t>PROV_SUITE_NO</t>
+  </si>
+  <si>
+    <t>ADD_PROV_PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>ADD_PROV_CITY</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>PROV_EXT</t>
+  </si>
+  <si>
+    <t>PROV_FAX</t>
+  </si>
+  <si>
+    <t>PATIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>PROV_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PROV_OFFICE_MAIL</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>PHYSICIAN_CHECKBOX</t>
+  </si>
+  <si>
+    <t>PRIMAY_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
   </si>
   <si>
     <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>POLICY_DETAIL_TITLE</t>
-  </si>
-  <si>
-    <t>CANCEL_LINK</t>
-  </si>
-  <si>
-    <t>Click on Cancel link</t>
-  </si>
-  <si>
-    <t>Cancel link clicked</t>
-  </si>
-  <si>
-    <t>CONFIRM_BUTTON_POPUP</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
   </si>
   <si>
     <t>VerifyElementIsNotPresent</t>
@@ -918,12 +1257,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,19 +1292,75 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -980,8 +1375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,39 +1390,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,27 +1413,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,32 +1428,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,7 +1463,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,109 +1553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,13 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,6 +1696,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1372,16 +1721,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,39 +1752,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,20 +1770,33 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1480,134 +1814,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1617,15 +1951,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,6 +2020,51 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1978,10 +2355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2024,7 +2401,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2042,7 +2419,7 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2062,210 +2439,210 @@
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>4</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
-        <v>11</v>
+      <c r="A14" s="9">
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -2273,7 +2650,7 @@
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="9"/>
@@ -2286,14 +2663,14 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>12</v>
+      <c r="A15" s="10">
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10">
         <v>4</v>
       </c>
@@ -2306,8 +2683,8 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
-        <v>13</v>
+      <c r="A16" s="9">
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -2315,7 +2692,7 @@
       <c r="C16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="9"/>
@@ -2328,8 +2705,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5">
-        <v>14</v>
+      <c r="A17" s="10">
+        <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
@@ -2348,8 +2725,8 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
-        <v>15</v>
+      <c r="A18" s="9">
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>42</v>
@@ -2357,10 +2734,10 @@
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -2372,15 +2749,15 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5">
-        <v>16</v>
+      <c r="A19" s="10">
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
         <v>2</v>
       </c>
       <c r="F19" s="10"/>
@@ -2388,8 +2765,8 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>17</v>
+      <c r="A20" s="9">
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>47</v>
@@ -2397,7 +2774,7 @@
       <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="9">
@@ -2412,8 +2789,8 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5">
-        <v>18</v>
+      <c r="A21" s="10">
+        <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>47</v>
@@ -2421,7 +2798,7 @@
       <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="10">
@@ -2436,8 +2813,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>19</v>
+      <c r="A22" s="9">
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>19</v>
@@ -2445,7 +2822,7 @@
       <c r="C22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="9"/>
@@ -2458,8 +2835,8 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5">
-        <v>20</v>
+      <c r="A23" s="10">
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2467,7 +2844,7 @@
       <c r="C23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="10"/>
@@ -2480,8 +2857,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>21</v>
+      <c r="A24" s="9">
+        <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>19</v>
@@ -2489,7 +2866,7 @@
       <c r="C24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="9"/>
@@ -2502,8 +2879,8 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5">
-        <v>22</v>
+      <c r="A25" s="10">
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>47</v>
@@ -2511,7 +2888,7 @@
       <c r="C25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="10">
@@ -2526,8 +2903,8 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6">
-        <v>23</v>
+      <c r="A26" s="9">
+        <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>19</v>
@@ -2548,8 +2925,8 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5">
-        <v>24</v>
+      <c r="A27" s="10">
+        <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>11</v>
@@ -2568,8 +2945,8 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6">
-        <v>25</v>
+      <c r="A28" s="9">
+        <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>65</v>
@@ -2577,7 +2954,7 @@
       <c r="C28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2588,8 +2965,8 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5">
-        <v>26</v>
+      <c r="A29" s="10">
+        <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>42</v>
@@ -2612,8 +2989,8 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6">
-        <v>27</v>
+      <c r="A30" s="9">
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>42</v>
@@ -2636,8 +3013,8 @@
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5">
-        <v>28</v>
+      <c r="A31" s="10">
+        <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>42</v>
@@ -2660,8 +3037,8 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6">
-        <v>29</v>
+      <c r="A32" s="9">
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>42</v>
@@ -2684,8 +3061,8 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5">
-        <v>30</v>
+      <c r="A33" s="10">
+        <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>42</v>
@@ -2708,8 +3085,8 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6">
-        <v>31</v>
+      <c r="A34" s="9">
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>19</v>
@@ -2730,8 +3107,8 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5">
-        <v>32</v>
+      <c r="A35" s="10">
+        <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>19</v>
@@ -2752,8 +3129,8 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6">
-        <v>33</v>
+      <c r="A36" s="10">
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
@@ -2772,8 +3149,8 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5">
-        <v>34</v>
+      <c r="A37" s="9">
+        <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>42</v>
@@ -2793,11 +3170,11 @@
       <c r="G37" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6">
-        <v>35</v>
+      <c r="A38" s="10">
+        <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>65</v>
@@ -2815,1030 +3192,1064 @@
       <c r="G38" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5">
-        <v>36</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:13">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:13">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:13">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9">
+        <v>4</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" s="5" customFormat="1" spans="1:8">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" s="6" customFormat="1" spans="1:8">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
+      <c r="D49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" s="5" customFormat="1" spans="1:8">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" s="6" customFormat="1" spans="1:8">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" s="5" customFormat="1" spans="1:8">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" s="5" customFormat="1" spans="1:8">
+      <c r="A53" s="10">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="6">
-        <v>37</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="F53" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" s="9" t="s">
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" s="6" customFormat="1" spans="1:8">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" s="4" customFormat="1" spans="1:13">
-      <c r="A41" s="5">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="F54" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" s="5" customFormat="1" spans="1:8">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C55" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" s="4" customFormat="1" spans="1:13">
-      <c r="A42" s="6">
-        <v>39</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="D55" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="9">
+        <v>10001</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" s="6" customFormat="1" spans="1:8">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="9">
-        <v>10001</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="D56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="10">
+        <v>9789123456</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" s="5" customFormat="1" spans="1:8">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" s="5" customFormat="1" spans="1:8">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" s="6" customFormat="1" spans="1:8">
+      <c r="A59" s="10">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9">
+        <v>4</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" s="5" customFormat="1" spans="1:8">
+      <c r="A60" s="10">
+        <v>59</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" s="6" customFormat="1" spans="1:8">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9">
+        <v>4</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" s="5" customFormat="1" spans="1:8">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" s="4" customFormat="1" spans="1:13">
-      <c r="A43" s="5">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" s="5" customFormat="1" spans="1:8">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9">
+        <v>5</v>
+      </c>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" s="6" customFormat="1" spans="1:8">
+      <c r="A64" s="9">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="6">
-        <v>41</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="6">
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5">
-        <v>44</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:8">
-      <c r="A48" s="6">
-        <v>45</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="D64" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" s="5" customFormat="1" spans="1:8">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="9">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9">
+        <v>3</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" s="6" customFormat="1" spans="1:8">
+      <c r="A66" s="10">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H66" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" s="5" customFormat="1" spans="1:8">
+      <c r="A67" s="9">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9">
         <v>4</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" s="6" customFormat="1" spans="1:8">
-      <c r="A49" s="5">
-        <v>46</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="1:8">
-      <c r="A50" s="6">
-        <v>47</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" s="6" customFormat="1" spans="1:8">
-      <c r="A51" s="5">
-        <v>48</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:8">
-      <c r="A52" s="6">
-        <v>49</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:8">
-      <c r="A53" s="5">
-        <v>50</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" s="6" customFormat="1" spans="1:8">
-      <c r="A54" s="6">
-        <v>51</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="9"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="1:8">
-      <c r="A55" s="5">
-        <v>52</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" s="6" customFormat="1" spans="1:8">
-      <c r="A56" s="6">
-        <v>53</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="9">
-        <v>10001</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="1:8">
-      <c r="A57" s="5">
-        <v>54</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="10">
-        <v>9789123456</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="1:8">
-      <c r="A58" s="6">
-        <v>55</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" s="6" customFormat="1" spans="1:8">
-      <c r="A59" s="5">
-        <v>56</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" s="5" customFormat="1" spans="1:8">
-      <c r="A60" s="6">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" s="6" customFormat="1" spans="1:8">
-      <c r="A61" s="5">
-        <v>58</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" s="5" customFormat="1" spans="1:8">
-      <c r="A62" s="6">
-        <v>59</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>2</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="1:8">
-      <c r="A63" s="5">
-        <v>60</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" s="6" customFormat="1" spans="1:8">
-      <c r="A64" s="6">
-        <v>61</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" s="5" customFormat="1" spans="1:8">
-      <c r="A65" s="5">
-        <v>62</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" s="6" customFormat="1" spans="1:8">
-      <c r="A66" s="6">
-        <v>63</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" s="5" customFormat="1" spans="1:8">
-      <c r="A67" s="5">
-        <v>64</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H67" s="10"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" s="5" customFormat="1" spans="1:8">
-      <c r="A68" s="6">
-        <v>65</v>
+      <c r="A68" s="10">
+        <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="9">
-        <v>1235647899</v>
+        <v>154</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H68" s="9"/>
     </row>
     <row r="69" s="6" customFormat="1" spans="1:8">
-      <c r="A69" s="5">
-        <v>66</v>
+      <c r="A69" s="10">
+        <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10">
+        <v>2</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" s="5" customFormat="1" spans="1:8">
-      <c r="A70" s="6">
-        <v>67</v>
+      <c r="A70" s="9">
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>173</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" s="6" customFormat="1" spans="1:8">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="1:8">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" s="5" customFormat="1" spans="1:8">
+      <c r="A73" s="9">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" s="6" customFormat="1" spans="1:8">
+      <c r="A74" s="10">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" s="6" customFormat="1" spans="1:8">
-      <c r="A71" s="5">
-        <v>68</v>
-      </c>
-      <c r="B71" s="10" t="s">
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="1:8">
+      <c r="A75" s="10">
+        <v>74</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D75" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E75" s="10">
+        <v>1235647899</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" s="6" customFormat="1" spans="1:8">
+      <c r="A76" s="9">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" s="5" customFormat="1" spans="1:8">
+      <c r="A77" s="10">
+        <v>76</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" s="5" customFormat="1" spans="1:8">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="9">
         <v>97890456789</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="1:8">
-      <c r="A72" s="6">
-        <v>69</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="F78" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" s="6" customFormat="1" spans="1:8">
+      <c r="A79" s="9">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" s="5" customFormat="1" spans="1:8">
-      <c r="A73" s="5">
-        <v>70</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" s="5" customFormat="1" spans="1:8">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1230</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" s="6" customFormat="1" spans="1:8">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1550</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" s="6" customFormat="1" spans="1:8">
+      <c r="A82" s="9">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" s="6" customFormat="1" spans="1:8">
-      <c r="A74" s="6">
-        <v>71</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10">
-        <v>4</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="1:8">
-      <c r="A75" s="5">
-        <v>72</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="C82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" s="6" customFormat="1" spans="1:8">
+      <c r="A83" s="10">
+        <v>82</v>
+      </c>
+      <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" s="6" customFormat="1" spans="1:8">
-      <c r="A76" s="6">
-        <v>73</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="10">
-        <v>5</v>
-      </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" s="5" customFormat="1" spans="1:8">
-      <c r="A77" s="5">
-        <v>74</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="C83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" s="6" customFormat="1" spans="1:8">
+      <c r="A84" s="10">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" s="5" customFormat="1" spans="1:8">
-      <c r="A78" s="6">
-        <v>75</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10">
-        <v>3</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" s="6" customFormat="1" spans="1:8">
-      <c r="A79" s="5">
-        <v>76</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="C84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" s="6" customFormat="1" spans="1:8">
+      <c r="A85" s="9">
+        <v>84</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" s="5" customFormat="1" spans="1:8">
-      <c r="A80" s="6">
-        <v>77</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10">
-        <v>4</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" s="6" customFormat="1" spans="1:8">
-      <c r="A81" s="5">
-        <v>78</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" s="6" customFormat="1" spans="1:8">
-      <c r="A82" s="6">
-        <v>79</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" s="6" customFormat="1" spans="1:8">
-      <c r="A83" s="5">
-        <v>80</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>1</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" s="6" customFormat="1" spans="1:8">
-      <c r="A84" s="6">
-        <v>81</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" s="6" customFormat="1" spans="1:8">
-      <c r="A85" s="5">
-        <v>82</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>4</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+      <c r="C85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" s="5" customFormat="1" spans="1:8">
-      <c r="A86" s="6">
-        <v>83</v>
+      <c r="A86" s="10">
+        <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9" t="s">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="H86" s="9"/>
     </row>
     <row r="87" s="5" customFormat="1" spans="1:8">
-      <c r="A87" s="5">
-        <v>84</v>
+      <c r="A87" s="10">
+        <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>11</v>
@@ -3848,20 +4259,1692 @@
       <c r="E87" s="10">
         <v>4</v>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" s="10"/>
     </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="9">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="10">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10">
+        <v>4</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="10">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="9">
+        <v>90</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10">
+        <v>5</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="10">
+        <v>91</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H92" s="9"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="10">
+        <v>92</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10">
+        <v>3</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="9">
+        <v>93</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="10">
+        <v>94</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10">
+        <v>4</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="10">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10">
+        <v>4</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="10">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="10">
+        <v>98</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9">
+        <v>3</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="10">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="9">
+        <v>2</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="10">
+        <v>101</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="10">
+        <v>103</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="10">
+        <v>104</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="9">
+        <v>105</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>4</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="10">
+        <v>106</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="10">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10">
+        <v>5</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="9">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="10">
+        <v>109</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="10">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="9">
+        <v>111</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="10">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="10">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="9">
+        <v>114</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="10">
+        <v>115</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="10">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="9">
+        <v>117</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="10">
+        <v>118</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="10">
+        <v>119</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="9">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="10">
+        <v>121</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="10">
+        <v>10001</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="10">
+        <v>122</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123" s="10">
+        <v>9789045678</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="9">
+        <v>123</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E124" s="10">
+        <v>21331</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="10">
+        <v>124</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E125" s="10">
+        <v>97989898982</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="10">
+        <v>125</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="9">
+        <v>126</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="10">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="10">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="9">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10">
+        <v>2</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="10">
+        <v>130</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="10">
+        <v>131</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="9">
+        <v>132</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>4</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" s="9"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="10">
+        <v>133</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="10">
+        <v>134</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9">
+        <v>4</v>
+      </c>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="9">
+        <v>135</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="10">
+        <v>136</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9">
+        <v>5</v>
+      </c>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="10">
+        <v>137</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="9">
+        <v>138</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9">
+        <v>3</v>
+      </c>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="10">
+        <v>139</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H140" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="10">
+        <v>140</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9">
+        <v>4</v>
+      </c>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="9">
+        <v>141</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="10">
+        <v>142</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
+        <v>2</v>
+      </c>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="10">
+        <v>143</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H144" s="10"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="9">
+        <v>144</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H145" s="9"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="10">
+        <v>145</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H146" s="10"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="10">
+        <v>146</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H147" s="9"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="9">
+        <v>147</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H148" s="10"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="10">
+        <v>148</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H149" s="9"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="10">
+        <v>149</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H150" s="10"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="10">
+        <v>151</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10">
+        <v>4</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="10">
+        <v>152</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H153" s="10"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="9">
+        <v>153</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9">
+        <v>1</v>
+      </c>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="10">
+        <v>154</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="10">
+        <v>155</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
+        <v>1</v>
+      </c>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="10">
+        <v>157</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>3</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="10">
+        <v>158</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="9">
+        <v>159</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H160" s="9"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="10">
+        <v>160</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10">
+        <v>2</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="10">
+        <v>161</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H162" s="9"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="9">
+        <v>162</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="10">
+        <v>163</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E164" s="9">
+        <v>9889656446</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H164" s="9"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="10">
+        <v>164</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H165" s="10"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="9">
+        <v>165</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9">
+        <v>4</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H166" s="9"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="10">
+        <v>166</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H167" s="10"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="10">
+        <v>167</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9">
+        <v>5</v>
+      </c>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="9">
+        <v>168</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H169" s="10"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="10">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="4">
+        <v>5</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 C7:C9">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79 B1:B3 B14:B78 B80:B81 B82:B85 B86:B87 B88:B1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B171:B1048576">
       <formula1>DataList!$C$2:$C$120</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79 C1:C3 C14:C78 C80:C81 C82:C85 C86:C87 C88:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C171:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B94 C94 C95 C109 B118 C118 B140 C140 C141 C170 B2:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B170 C2:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C70">
+      <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3891,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3899,20 +5982,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -3923,20 +6006,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3944,47 +6027,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -3994,12 +6077,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>216</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -4009,55 +6092,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>217</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>218</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>220</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>221</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>224</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>225</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -4067,364 +6150,364 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>233</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>234</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>237</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>239</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>242</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>243</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>244</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>245</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>247</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>248</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>250</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>251</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>252</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>255</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>258</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>259</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>261</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>262</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>186</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>265</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>267</v>
+        <v>379</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>272</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>273</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>276</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>285</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>288</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>289</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>290</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>291</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>293</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_ViewIncomplete-Ok.xlsx
@@ -14,7 +14,6 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1307,7 +1306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1315,6 +1314,21 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1330,53 +1344,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1384,7 +1351,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,23 +1365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,9 +1382,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1463,7 +1462,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,61 +1576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,19 +1594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,43 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,37 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,45 +1695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1752,6 +1712,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1761,11 +1730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1793,10 +1768,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1814,130 +1813,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2027,8 +2026,8 @@
       <sheetName val="DataList"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2050,21 +2049,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2357,8 +2341,8 @@
   <sheetPr/>
   <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -3397,7 +3381,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>12</v>
@@ -5927,24 +5911,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B171:B1048576">
       <formula1>DataList!$C$2:$C$120</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C171:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B94 C94 C95 C109 B118 C118 B140 C140 C141 C170 B2:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B170 C2:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139">
-      <formula1>[4]DataList!#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B94 C94 C95 C109 B118 C118 B140 C140 C141 C170 B2:B38 B39:B93 B95:B117 B119:B139 B141:B157 B158:B170 C2:C3 C7:C9 C14:C38 C39:C59 C60:C63 C64:C67 C68:C70 C88:C91 C92:C93 C96:C97 C107:C108 C110:C113 C114:C117 C119:C124 C125:C130 C134:C137 C138:C139">
+      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
-      <formula1>[3]DataList!#REF!</formula1>
+      <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C132">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68:C70">
-      <formula1>[4]DataList!#REF!</formula1>
+      <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
